--- a/natmiOut/OldD4/LR-pairs_lrc2p/Icosl-Icos.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Icosl-Icos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,57 +534,57 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.768037440685907</v>
+        <v>0.7779683333333334</v>
       </c>
       <c r="H2">
-        <v>0.768037440685907</v>
+        <v>2.333905</v>
       </c>
       <c r="I2">
-        <v>0.04168560510696544</v>
+        <v>0.03257389909260204</v>
       </c>
       <c r="J2">
-        <v>0.04168560510696544</v>
+        <v>0.03376044640127995</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.324775375119402</v>
+        <v>0.528384</v>
       </c>
       <c r="N2">
-        <v>0.324775375119402</v>
+        <v>1.585152</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.5619293065003846</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.5956922614406103</v>
       </c>
       <c r="Q2">
-        <v>0.2494396479045109</v>
+        <v>0.41106601984</v>
       </c>
       <c r="R2">
-        <v>0.2494396479045109</v>
+        <v>3.69959417856</v>
       </c>
       <c r="S2">
-        <v>0.04168560510696544</v>
+        <v>0.01830422852711937</v>
       </c>
       <c r="T2">
-        <v>0.04168560510696544</v>
+        <v>0.02011083666402297</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.923004728553204</v>
+        <v>0.7779683333333334</v>
       </c>
       <c r="H3">
-        <v>0.923004728553204</v>
+        <v>2.333905</v>
       </c>
       <c r="I3">
-        <v>0.05009652991912626</v>
+        <v>0.03257389909260204</v>
       </c>
       <c r="J3">
-        <v>0.05009652991912626</v>
+        <v>0.03376044640127995</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.324775375119402</v>
+        <v>0.2520343333333333</v>
       </c>
       <c r="N3">
-        <v>0.324775375119402</v>
+        <v>0.756103</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.268035137597442</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.2841397581758909</v>
       </c>
       <c r="Q3">
-        <v>0.2997692069528487</v>
+        <v>0.1960747302461111</v>
       </c>
       <c r="R3">
-        <v>0.2997692069528487</v>
+        <v>1.764672572215</v>
       </c>
       <c r="S3">
-        <v>0.05009652991912626</v>
+        <v>0.008730949525370778</v>
       </c>
       <c r="T3">
-        <v>0.05009652991912626</v>
+        <v>0.009592685076369812</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.13905485027763</v>
+        <v>0.7779683333333334</v>
       </c>
       <c r="H4">
-        <v>7.13905485027763</v>
+        <v>2.333905</v>
       </c>
       <c r="I4">
-        <v>0.3874756692328272</v>
+        <v>0.03257389909260204</v>
       </c>
       <c r="J4">
-        <v>0.3874756692328272</v>
+        <v>0.03376044640127995</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.324775375119402</v>
+        <v>0.159885</v>
       </c>
       <c r="N4">
-        <v>0.324775375119402</v>
+        <v>0.31977</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.1700355559021734</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.1201679803834988</v>
       </c>
       <c r="Q4">
-        <v>2.318589216996904</v>
+        <v>0.124385466975</v>
       </c>
       <c r="R4">
-        <v>2.318589216996904</v>
+        <v>0.74631280185</v>
       </c>
       <c r="S4">
-        <v>0.3874756692328272</v>
+        <v>0.00553872104011189</v>
       </c>
       <c r="T4">
-        <v>0.3874756692328272</v>
+        <v>0.004056924660887173</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.09281877950061</v>
+        <v>0.9308339999999999</v>
       </c>
       <c r="H5">
-        <v>7.09281877950061</v>
+        <v>2.792502</v>
       </c>
       <c r="I5">
-        <v>0.384966184035872</v>
+        <v>0.03897445627130897</v>
       </c>
       <c r="J5">
-        <v>0.384966184035872</v>
+        <v>0.04039415233116475</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.324775375119402</v>
+        <v>0.528384</v>
       </c>
       <c r="N5">
-        <v>0.324775375119402</v>
+        <v>1.585152</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.5619293065003846</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.5956922614406103</v>
       </c>
       <c r="Q5">
-        <v>2.30357287976625</v>
+        <v>0.4918377922559999</v>
       </c>
       <c r="R5">
-        <v>2.30357287976625</v>
+        <v>4.426540130304</v>
       </c>
       <c r="S5">
-        <v>0.384966184035872</v>
+        <v>0.02190088918376622</v>
       </c>
       <c r="T5">
-        <v>0.384966184035872</v>
+        <v>0.02406248395112803</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,675 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.9308339999999999</v>
+      </c>
+      <c r="H6">
+        <v>2.792502</v>
+      </c>
+      <c r="I6">
+        <v>0.03897445627130897</v>
+      </c>
+      <c r="J6">
+        <v>0.04039415233116475</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.2520343333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.756103</v>
+      </c>
+      <c r="O6">
+        <v>0.268035137597442</v>
+      </c>
+      <c r="P6">
+        <v>0.2841397581758909</v>
+      </c>
+      <c r="Q6">
+        <v>0.234602126634</v>
+      </c>
+      <c r="R6">
+        <v>2.111419139706</v>
+      </c>
+      <c r="S6">
+        <v>0.01044652374946579</v>
+      </c>
+      <c r="T6">
+        <v>0.01147758467509725</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.9308339999999999</v>
+      </c>
+      <c r="H7">
+        <v>2.792502</v>
+      </c>
+      <c r="I7">
+        <v>0.03897445627130897</v>
+      </c>
+      <c r="J7">
+        <v>0.04039415233116475</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <v>0.159885</v>
+      </c>
+      <c r="N7">
+        <v>0.31977</v>
+      </c>
+      <c r="O7">
+        <v>0.1700355559021734</v>
+      </c>
+      <c r="P7">
+        <v>0.1201679803834988</v>
+      </c>
+      <c r="Q7">
+        <v>0.14882639409</v>
+      </c>
+      <c r="R7">
+        <v>0.8929583645399999</v>
+      </c>
+      <c r="S7">
+        <v>0.00662704333807697</v>
+      </c>
+      <c r="T7">
+        <v>0.00485408370493947</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>2.50160841539958</v>
-      </c>
-      <c r="H6">
-        <v>2.50160841539958</v>
-      </c>
-      <c r="I6">
-        <v>0.135776011705209</v>
-      </c>
-      <c r="J6">
-        <v>0.135776011705209</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.324775375119402</v>
-      </c>
-      <c r="N6">
-        <v>0.324775375119402</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>0.8124608115132516</v>
-      </c>
-      <c r="R6">
-        <v>0.8124608115132516</v>
-      </c>
-      <c r="S6">
-        <v>0.135776011705209</v>
-      </c>
-      <c r="T6">
-        <v>0.135776011705209</v>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>11.921496</v>
+      </c>
+      <c r="H8">
+        <v>35.764488</v>
+      </c>
+      <c r="I8">
+        <v>0.4991586303686639</v>
+      </c>
+      <c r="J8">
+        <v>0.5173411429313618</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.528384</v>
+      </c>
+      <c r="N8">
+        <v>1.585152</v>
+      </c>
+      <c r="O8">
+        <v>0.5619293065003846</v>
+      </c>
+      <c r="P8">
+        <v>0.5956922614406103</v>
+      </c>
+      <c r="Q8">
+        <v>6.299127742463999</v>
+      </c>
+      <c r="R8">
+        <v>56.69214968217599</v>
+      </c>
+      <c r="S8">
+        <v>0.2804918629967451</v>
+      </c>
+      <c r="T8">
+        <v>0.3081761153690529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>11.921496</v>
+      </c>
+      <c r="H9">
+        <v>35.764488</v>
+      </c>
+      <c r="I9">
+        <v>0.4991586303686639</v>
+      </c>
+      <c r="J9">
+        <v>0.5173411429313618</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.2520343333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.756103</v>
+      </c>
+      <c r="O9">
+        <v>0.268035137597442</v>
+      </c>
+      <c r="P9">
+        <v>0.2841397581758909</v>
+      </c>
+      <c r="Q9">
+        <v>3.004626296695999</v>
+      </c>
+      <c r="R9">
+        <v>27.041636670264</v>
+      </c>
+      <c r="S9">
+        <v>0.1337920521738155</v>
+      </c>
+      <c r="T9">
+        <v>0.1469971872469562</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>11.921496</v>
+      </c>
+      <c r="H10">
+        <v>35.764488</v>
+      </c>
+      <c r="I10">
+        <v>0.4991586303686639</v>
+      </c>
+      <c r="J10">
+        <v>0.5173411429313618</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="M10">
+        <v>0.159885</v>
+      </c>
+      <c r="N10">
+        <v>0.31977</v>
+      </c>
+      <c r="O10">
+        <v>0.1700355559021734</v>
+      </c>
+      <c r="P10">
+        <v>0.1201679803834988</v>
+      </c>
+      <c r="Q10">
+        <v>1.90606838796</v>
+      </c>
+      <c r="R10">
+        <v>11.43641032776</v>
+      </c>
+      <c r="S10">
+        <v>0.08487471519810327</v>
+      </c>
+      <c r="T10">
+        <v>0.06216784031535275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>7.734682333333333</v>
+      </c>
+      <c r="H11">
+        <v>23.204047</v>
+      </c>
+      <c r="I11">
+        <v>0.3238547779442587</v>
+      </c>
+      <c r="J11">
+        <v>0.3356516160838941</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.528384</v>
+      </c>
+      <c r="N11">
+        <v>1.585152</v>
+      </c>
+      <c r="O11">
+        <v>0.5619293065003846</v>
+      </c>
+      <c r="P11">
+        <v>0.5956922614406103</v>
+      </c>
+      <c r="Q11">
+        <v>4.086882390015999</v>
+      </c>
+      <c r="R11">
+        <v>36.78194151014399</v>
+      </c>
+      <c r="S11">
+        <v>0.1819834907770533</v>
+      </c>
+      <c r="T11">
+        <v>0.1999450702412104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>7.734682333333333</v>
+      </c>
+      <c r="H12">
+        <v>23.204047</v>
+      </c>
+      <c r="I12">
+        <v>0.3238547779442587</v>
+      </c>
+      <c r="J12">
+        <v>0.3356516160838941</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.2520343333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.756103</v>
+      </c>
+      <c r="O12">
+        <v>0.268035137597442</v>
+      </c>
+      <c r="P12">
+        <v>0.2841397581758909</v>
+      </c>
+      <c r="Q12">
+        <v>1.949405505426777</v>
+      </c>
+      <c r="R12">
+        <v>17.544649548841</v>
+      </c>
+      <c r="S12">
+        <v>0.08680445996787838</v>
+      </c>
+      <c r="T12">
+        <v>0.09537196902542464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7.734682333333333</v>
+      </c>
+      <c r="H13">
+        <v>23.204047</v>
+      </c>
+      <c r="I13">
+        <v>0.3238547779442587</v>
+      </c>
+      <c r="J13">
+        <v>0.3356516160838941</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.159885</v>
+      </c>
+      <c r="N13">
+        <v>0.31977</v>
+      </c>
+      <c r="O13">
+        <v>0.1700355559021734</v>
+      </c>
+      <c r="P13">
+        <v>0.1201679803834988</v>
+      </c>
+      <c r="Q13">
+        <v>1.236659684865</v>
+      </c>
+      <c r="R13">
+        <v>7.41995810919</v>
+      </c>
+      <c r="S13">
+        <v>0.05506682719932696</v>
+      </c>
+      <c r="T13">
+        <v>0.04033457681725907</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.5182005</v>
+      </c>
+      <c r="H14">
+        <v>5.036401</v>
+      </c>
+      <c r="I14">
+        <v>0.1054382363231665</v>
+      </c>
+      <c r="J14">
+        <v>0.07285264225229936</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.528384</v>
+      </c>
+      <c r="N14">
+        <v>1.585152</v>
+      </c>
+      <c r="O14">
+        <v>0.5619293065003846</v>
+      </c>
+      <c r="P14">
+        <v>0.5956922614406103</v>
+      </c>
+      <c r="Q14">
+        <v>1.330576852992</v>
+      </c>
+      <c r="R14">
+        <v>7.983461117951999</v>
+      </c>
+      <c r="S14">
+        <v>0.05924883501570064</v>
+      </c>
+      <c r="T14">
+        <v>0.04339775521519596</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.5182005</v>
+      </c>
+      <c r="H15">
+        <v>5.036401</v>
+      </c>
+      <c r="I15">
+        <v>0.1054382363231665</v>
+      </c>
+      <c r="J15">
+        <v>0.07285264225229936</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.2520343333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.756103</v>
+      </c>
+      <c r="O15">
+        <v>0.268035137597442</v>
+      </c>
+      <c r="P15">
+        <v>0.2841397581758909</v>
+      </c>
+      <c r="Q15">
+        <v>0.6346729842171666</v>
+      </c>
+      <c r="R15">
+        <v>3.808037905303</v>
+      </c>
+      <c r="S15">
+        <v>0.02826115218091155</v>
+      </c>
+      <c r="T15">
+        <v>0.02070033215204303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.5182005</v>
+      </c>
+      <c r="H16">
+        <v>5.036401</v>
+      </c>
+      <c r="I16">
+        <v>0.1054382363231665</v>
+      </c>
+      <c r="J16">
+        <v>0.07285264225229936</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.159885</v>
+      </c>
+      <c r="N16">
+        <v>0.31977</v>
+      </c>
+      <c r="O16">
+        <v>0.1700355559021734</v>
+      </c>
+      <c r="P16">
+        <v>0.1201679803834988</v>
+      </c>
+      <c r="Q16">
+        <v>0.4026224869425</v>
+      </c>
+      <c r="R16">
+        <v>1.61048994777</v>
+      </c>
+      <c r="S16">
+        <v>0.01792824912655436</v>
+      </c>
+      <c r="T16">
+        <v>0.008754554885060368</v>
       </c>
     </row>
   </sheetData>
